--- a/DataCleaning/testnames.xlsx
+++ b/DataCleaning/testnames.xlsx
@@ -20,56 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t xml:space="preserve">Staff</t>
   </si>
   <si>
-    <t xml:space="preserve">John Samuel Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John S. Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John S Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J S Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. S. Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, John Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, John S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, John S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, J S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, J. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Samuel Peter Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, John S P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Smith, J S P</t>
   </si>
   <si>
@@ -95,6 +50,78 @@
   </si>
   <si>
     <t xml:space="preserve">Smith, John;Francis, Carol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marti F Perone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabot, E P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merralee Ives Mcfarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayan, Rosalie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takemoto, Roxie N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schiada, T G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitzgibbon, Ginelle M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninnetta J Teeven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinagle, Nessi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabot, Eolanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brecher, B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teeven, Ninnetta J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinero, Caril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merralee Mcfarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Agresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoppin, Sadye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takemoto, Roxie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacy Styx, Shanon Pope, Amy Seals, Marty Dave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison Reel Madison.Reel@fake.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birch, Samuel;Thomas, Frieda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas, Chris Mort, Francis Cost, Allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Iverson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacy Styx, Shanon Pope</t>
   </si>
 </sst>
 </file>
@@ -104,11 +131,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,6 +152,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,8 +203,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,10 +229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,7 +365,120 @@
         <v>24</v>
       </c>
     </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A45" r:id="rId1" display="Madison Reel Madison.Reel@fake.org"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
